--- a/tests/databooks/databook_foi_prototype.xlsx
+++ b/tests/databooks/databook_foi_prototype.xlsx
@@ -1,34 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh.abey\Desktop\projects\atomica\atomica\tests\databooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC30B5E2-446A-4183-AB14-AD25353DD81A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
-    <sheet name="Program Definitions" sheetId="2" r:id="rId2"/>
-    <sheet name="Parameters" sheetId="3" r:id="rId3"/>
-    <sheet name="State Variables" sheetId="4" r:id="rId4"/>
-    <sheet name="Metadata" sheetId="5" r:id="rId5"/>
+    <sheet name="Parameters" sheetId="3" r:id="rId2"/>
+    <sheet name="State Variables" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -63,52 +62,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for the abbreviated name of a population.
-It is only ever used as a reference label within the code.
-Note: It should be in lower case without spaces.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for the full name of a program.
-It will appear in plots and analysis outputs.
-Note: It should be in title or sentence case.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -135,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -165,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -196,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -223,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -245,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="36">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -278,15 +237,6 @@
   </si>
   <si>
     <t>Fraction</t>
-  </si>
-  <si>
-    <t>data_start</t>
-  </si>
-  <si>
-    <t>data_end</t>
-  </si>
-  <si>
-    <t>data_dt</t>
   </si>
   <si>
     <t>adults</t>
@@ -367,7 +317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,6 +463,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -548,6 +515,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -723,20 +707,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.68359375" customWidth="1"/>
-    <col min="4" max="4" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,66 +728,66 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -813,48 +797,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.68359375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W71"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="50.68359375" customWidth="1"/>
-    <col min="2" max="2" width="15.68359375" customWidth="1"/>
-    <col min="3" max="3" width="10.68359375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -920,53 +879,61 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>'Population Definitions'!A3</f>
+        <v>pwid</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'Population Definitions'!A3</f>
+        <v>pwid</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>'Population Definitions'!A4</f>
+        <v>larva</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'Population Definitions'!A4</f>
+        <v>larva</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>'Population Definitions'!A5</f>
+        <v>imago</v>
+      </c>
+      <c r="B5" t="str">
+        <f>'Population Definitions'!A5</f>
+        <v>imago</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
@@ -1032,9 +999,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>15</v>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1043,9 +1011,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>24</v>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>'Population Definitions'!A3</f>
+        <v>pwid</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1054,9 +1023,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>21</v>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>'Population Definitions'!A4</f>
+        <v>larva</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1065,9 +1035,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>22</v>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>'Population Definitions'!A5</f>
+        <v>imago</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1076,9 +1047,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>2</v>
@@ -1144,9 +1115,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>15</v>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1155,9 +1127,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>24</v>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>'Population Definitions'!A3</f>
+        <v>pwid</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1166,9 +1139,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>21</v>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>'Population Definitions'!A4</f>
+        <v>larva</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -1177,9 +1151,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>22</v>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>'Population Definitions'!A5</f>
+        <v>imago</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -1188,9 +1163,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>2</v>
@@ -1256,9 +1231,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>15</v>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -1267,9 +1243,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>24</v>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>'Population Definitions'!A3</f>
+        <v>pwid</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -1278,9 +1255,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>'Population Definitions'!A4</f>
+        <v>larva</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -1289,9 +1267,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>'Population Definitions'!A5</f>
+        <v>imago</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -1300,9 +1279,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>2</v>
@@ -1368,9 +1347,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>15</v>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -1379,9 +1359,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>24</v>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>'Population Definitions'!A3</f>
+        <v>pwid</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -1390,9 +1371,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>21</v>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>'Population Definitions'!A4</f>
+        <v>larva</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -1401,9 +1383,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>22</v>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>'Population Definitions'!A5</f>
+        <v>imago</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
@@ -1412,9 +1395,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>2</v>
@@ -1480,9 +1463,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
-        <v>15</v>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -1491,9 +1475,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>24</v>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>'Population Definitions'!A3</f>
+        <v>pwid</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
@@ -1502,9 +1487,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
-        <v>21</v>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>'Population Definitions'!A4</f>
+        <v>larva</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -1513,9 +1499,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="s">
-        <v>22</v>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>'Population Definitions'!A5</f>
+        <v>imago</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
@@ -1524,9 +1511,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>2</v>
@@ -1592,9 +1579,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
-        <v>15</v>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
@@ -1603,9 +1591,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="s">
-        <v>24</v>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>'Population Definitions'!A3</f>
+        <v>pwid</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
@@ -1614,9 +1603,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
-        <v>21</v>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>'Population Definitions'!A4</f>
+        <v>larva</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
@@ -1625,9 +1615,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
-        <v>22</v>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>'Population Definitions'!A5</f>
+        <v>imago</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
@@ -1636,9 +1627,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>2</v>
@@ -1704,9 +1695,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" t="s">
-        <v>15</v>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
@@ -1715,9 +1707,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="s">
-        <v>24</v>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>'Population Definitions'!A3</f>
+        <v>pwid</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
@@ -1726,9 +1719,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" t="s">
-        <v>21</v>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>'Population Definitions'!A4</f>
+        <v>larva</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
@@ -1737,9 +1731,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" t="s">
-        <v>22</v>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>'Population Definitions'!A5</f>
+        <v>imago</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
@@ -1748,9 +1743,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>2</v>
@@ -1816,9 +1811,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" t="s">
-        <v>15</v>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
@@ -1827,9 +1823,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" t="s">
-        <v>24</v>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>'Population Definitions'!A3</f>
+        <v>pwid</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
@@ -1838,9 +1835,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" t="s">
-        <v>21</v>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>'Population Definitions'!A4</f>
+        <v>larva</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
@@ -1849,9 +1847,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" t="s">
-        <v>22</v>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>'Population Definitions'!A5</f>
+        <v>imago</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
@@ -1860,9 +1859,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>2</v>
@@ -1928,9 +1927,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" t="s">
-        <v>15</v>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
@@ -1939,9 +1939,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" t="s">
-        <v>24</v>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f>'Population Definitions'!A3</f>
+        <v>pwid</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
@@ -1950,9 +1951,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" t="s">
-        <v>21</v>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f>'Population Definitions'!A4</f>
+        <v>larva</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
@@ -1961,9 +1963,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" t="s">
-        <v>22</v>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f>'Population Definitions'!A5</f>
+        <v>imago</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
@@ -1972,9 +1975,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>2</v>
@@ -2040,9 +2043,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" t="s">
-        <v>15</v>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
@@ -2051,9 +2055,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" t="s">
-        <v>24</v>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f>'Population Definitions'!A3</f>
+        <v>pwid</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
@@ -2062,9 +2067,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" t="s">
-        <v>21</v>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f>'Population Definitions'!A4</f>
+        <v>larva</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
@@ -2073,9 +2079,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" t="s">
-        <v>22</v>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f>'Population Definitions'!A5</f>
+        <v>imago</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
@@ -2084,9 +2091,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>2</v>
@@ -2152,9 +2159,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" t="s">
-        <v>15</v>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f>'Population Definitions'!A2</f>
+        <v>adults</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
@@ -2163,9 +2171,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" t="s">
-        <v>24</v>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f>'Population Definitions'!A3</f>
+        <v>pwid</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
@@ -2174,9 +2183,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" t="s">
-        <v>21</v>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f>'Population Definitions'!A4</f>
+        <v>larva</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
@@ -2185,9 +2195,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" t="s">
-        <v>22</v>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f>'Population Definitions'!A5</f>
+        <v>imago</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
@@ -2201,22 +2212,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.68359375" customWidth="1"/>
-    <col min="2" max="2" width="15.68359375" customWidth="1"/>
-    <col min="3" max="3" width="10.68359375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2284,10 +2295,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -2299,10 +2310,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
-        <f>'Population Definitions'!B3</f>
-        <v>Adult PWID</v>
+        <f>'Population Definitions'!$A$3</f>
+        <v>pwid</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -2315,7 +2326,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2383,10 +2394,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -2398,10 +2409,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
-        <f>'Population Definitions'!B3</f>
-        <v>Adult PWID</v>
+        <f>'Population Definitions'!$A$3</f>
+        <v>pwid</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -2413,7 +2424,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -2481,10 +2492,10 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
-        <f>'Population Definitions'!B2</f>
-        <v>Adults</v>
+        <f>'Population Definitions'!$A$2</f>
+        <v>adults</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -2553,10 +2564,10 @@
         <v>3.54528E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
-        <f>'Population Definitions'!B3</f>
-        <v>Adult PWID</v>
+        <f>'Population Definitions'!$A$3</f>
+        <v>pwid</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -2623,53 +2634,14 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7 B2:B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7 B2:B3" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B11" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Fraction"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>